--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F13D6-01C4-448B-9E20-21F991E1E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C69FE-7F97-4C42-8003-4AEFEF6DC243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="105">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>埃尔修斯</t>
   </si>
   <si>
-    <t>Aloysius</t>
-  </si>
-  <si>
     <t>被打败的火魔人甲</t>
   </si>
   <si>
@@ -234,42 +231,12 @@
     <t>肥胖的火魔人</t>
   </si>
   <si>
-    <t>Bruja del desierto</t>
-  </si>
-  <si>
-    <t>Espejo</t>
-  </si>
-  <si>
     <t>Ifrit alto</t>
   </si>
   <si>
-    <t>Ifrit corto</t>
-  </si>
-  <si>
-    <t>Hombre misterioso</t>
-  </si>
-  <si>
     <t>Ifrit tímido</t>
   </si>
   <si>
-    <t>Jardinería Ifrit</t>
-  </si>
-  <si>
-    <t>Observando a Ifrit</t>
-  </si>
-  <si>
-    <t>Niño desconocido</t>
-  </si>
-  <si>
-    <t>Bestia misteriosa</t>
-  </si>
-  <si>
-    <t>Viajero de ojos de halcón</t>
-  </si>
-  <si>
-    <t>Nasir el Mago Blanco</t>
-  </si>
-  <si>
     <t>Soldado Akhal</t>
   </si>
   <si>
@@ -279,80 +246,113 @@
     <t>Pintor (Recursos)</t>
   </si>
   <si>
-    <t>Pintor (Cazador de Monstruos)</t>
-  </si>
-  <si>
-    <t>Extraño transeúnte</t>
-  </si>
-  <si>
-    <t>Mujer hermosa</t>
-  </si>
-  <si>
-    <t>Hombre fuerte calvo</t>
-  </si>
-  <si>
-    <t>Hombre fuerte con cabello corto</t>
-  </si>
-  <si>
-    <t>Hombre Fuerte de Cabello Largo</t>
-  </si>
-  <si>
-    <t>Maestro de espadas</t>
-  </si>
-  <si>
-    <t>Cerdo</t>
-  </si>
-  <si>
-    <t>Perro</t>
-  </si>
-  <si>
-    <t>Buey</t>
-  </si>
-  <si>
-    <t>Transeúnte desconocido</t>
-  </si>
-  <si>
-    <t>Chica Nefrita</t>
-  </si>
-  <si>
-    <t>Mujer nefrita</t>
-  </si>
-  <si>
     <t>Soldado</t>
   </si>
   <si>
     <t>Ifrit feroz</t>
   </si>
   <si>
-    <t>Adulto Ali</t>
-  </si>
-  <si>
     <t>Hewez adulto</t>
   </si>
   <si>
-    <t>Ifrit femenina</t>
-  </si>
-  <si>
-    <t>Adulto Jarah</t>
-  </si>
-  <si>
-    <t>Aldeano enfadado</t>
-  </si>
-  <si>
-    <t>Compañero</t>
-  </si>
-  <si>
-    <t>Llama de Obsidiana</t>
-  </si>
-  <si>
-    <t>Ifrit regordete</t>
+    <t>Bruxa do Deserto</t>
+  </si>
+  <si>
+    <t>Mir</t>
+  </si>
+  <si>
+    <t>Ifrit curto</t>
+  </si>
+  <si>
+    <t>Homem misterioso</t>
+  </si>
+  <si>
+    <t>Aloísio</t>
+  </si>
+  <si>
+    <t>Jardinagem Ifrit</t>
+  </si>
+  <si>
+    <t>Observando Ifrit</t>
+  </si>
+  <si>
+    <t>Garoto Desconhecido</t>
+  </si>
+  <si>
+    <t>Homem-Besta Misterioso</t>
+  </si>
+  <si>
+    <t>Viajante com olhos de falcão</t>
+  </si>
+  <si>
+    <t>Nasir Mago Branco</t>
+  </si>
+  <si>
+    <t>Pintor (Monster Fighter)</t>
+  </si>
+  <si>
+    <t>Estranho Transeunte</t>
+  </si>
+  <si>
+    <t>Mulher bonita</t>
+  </si>
+  <si>
+    <t>Homem forte careca</t>
+  </si>
+  <si>
+    <t>Homem forte de cabelo cortado</t>
+  </si>
+  <si>
+    <t>Homem forte de cabelos compridos</t>
+  </si>
+  <si>
+    <t>Mestre de espada</t>
+  </si>
+  <si>
+    <t>Porco</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Boi</t>
+  </si>
+  <si>
+    <t>Transeunte desconhecido</t>
+  </si>
+  <si>
+    <t>Garota Nefrite</t>
+  </si>
+  <si>
+    <t>Mulher Nefrite</t>
+  </si>
+  <si>
+    <t>Ali adulto</t>
+  </si>
+  <si>
+    <t>Ifrit Feminino</t>
+  </si>
+  <si>
+    <t>Jarah adulto</t>
+  </si>
+  <si>
+    <t>Aldeão irritado</t>
+  </si>
+  <si>
+    <t>Companheiro</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>Ifrit gordinho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -368,6 +368,16 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="4">
@@ -388,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -396,11 +406,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -414,9 +442,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通 2" xfId="1" xr:uid="{DA865728-51A7-4886-9BF2-85A12977CF8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,7 +476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,10 +775,10 @@
   <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A2" sqref="A2:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="1" t="s">
@@ -759,789 +803,697 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="27">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="27">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="27">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="27">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="27">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="27">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="27">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.5">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.5">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="27">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="27">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="27">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="27">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="27">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="27">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="27">
+      <c r="A25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="27">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="27">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="27">
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="27">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="27">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="27">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="27">
+      <c r="A33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="27">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="27">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="27">
+      <c r="A36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="27">
+      <c r="A37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="27">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="27">
+      <c r="A39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="3" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="27">
+      <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="27">
+      <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="3" t="s">
+      <c r="C41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="27">
+      <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="3" t="s">
+      <c r="C42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
+      <c r="C43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="27">
+      <c r="A44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="27">
+      <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="3" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="27">
+      <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C69FE-7F97-4C42-8003-4AEFEF6DC243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F13D6-01C4-448B-9E20-21F991E1E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="105">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -90,6 +90,9 @@
     <t>埃尔修斯</t>
   </si>
   <si>
+    <t>Aloysius</t>
+  </si>
+  <si>
     <t>被打败的火魔人甲</t>
   </si>
   <si>
@@ -231,12 +234,42 @@
     <t>肥胖的火魔人</t>
   </si>
   <si>
+    <t>Bruja del desierto</t>
+  </si>
+  <si>
+    <t>Espejo</t>
+  </si>
+  <si>
     <t>Ifrit alto</t>
   </si>
   <si>
+    <t>Ifrit corto</t>
+  </si>
+  <si>
+    <t>Hombre misterioso</t>
+  </si>
+  <si>
     <t>Ifrit tímido</t>
   </si>
   <si>
+    <t>Jardinería Ifrit</t>
+  </si>
+  <si>
+    <t>Observando a Ifrit</t>
+  </si>
+  <si>
+    <t>Niño desconocido</t>
+  </si>
+  <si>
+    <t>Bestia misteriosa</t>
+  </si>
+  <si>
+    <t>Viajero de ojos de halcón</t>
+  </si>
+  <si>
+    <t>Nasir el Mago Blanco</t>
+  </si>
+  <si>
     <t>Soldado Akhal</t>
   </si>
   <si>
@@ -246,113 +279,80 @@
     <t>Pintor (Recursos)</t>
   </si>
   <si>
+    <t>Pintor (Cazador de Monstruos)</t>
+  </si>
+  <si>
+    <t>Extraño transeúnte</t>
+  </si>
+  <si>
+    <t>Mujer hermosa</t>
+  </si>
+  <si>
+    <t>Hombre fuerte calvo</t>
+  </si>
+  <si>
+    <t>Hombre fuerte con cabello corto</t>
+  </si>
+  <si>
+    <t>Hombre Fuerte de Cabello Largo</t>
+  </si>
+  <si>
+    <t>Maestro de espadas</t>
+  </si>
+  <si>
+    <t>Cerdo</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>Buey</t>
+  </si>
+  <si>
+    <t>Transeúnte desconocido</t>
+  </si>
+  <si>
+    <t>Chica Nefrita</t>
+  </si>
+  <si>
+    <t>Mujer nefrita</t>
+  </si>
+  <si>
     <t>Soldado</t>
   </si>
   <si>
     <t>Ifrit feroz</t>
   </si>
   <si>
+    <t>Adulto Ali</t>
+  </si>
+  <si>
     <t>Hewez adulto</t>
   </si>
   <si>
-    <t>Bruxa do Deserto</t>
-  </si>
-  <si>
-    <t>Mir</t>
-  </si>
-  <si>
-    <t>Ifrit curto</t>
-  </si>
-  <si>
-    <t>Homem misterioso</t>
-  </si>
-  <si>
-    <t>Aloísio</t>
-  </si>
-  <si>
-    <t>Jardinagem Ifrit</t>
-  </si>
-  <si>
-    <t>Observando Ifrit</t>
-  </si>
-  <si>
-    <t>Garoto Desconhecido</t>
-  </si>
-  <si>
-    <t>Homem-Besta Misterioso</t>
-  </si>
-  <si>
-    <t>Viajante com olhos de falcão</t>
-  </si>
-  <si>
-    <t>Nasir Mago Branco</t>
-  </si>
-  <si>
-    <t>Pintor (Monster Fighter)</t>
-  </si>
-  <si>
-    <t>Estranho Transeunte</t>
-  </si>
-  <si>
-    <t>Mulher bonita</t>
-  </si>
-  <si>
-    <t>Homem forte careca</t>
-  </si>
-  <si>
-    <t>Homem forte de cabelo cortado</t>
-  </si>
-  <si>
-    <t>Homem forte de cabelos compridos</t>
-  </si>
-  <si>
-    <t>Mestre de espada</t>
-  </si>
-  <si>
-    <t>Porco</t>
-  </si>
-  <si>
-    <t>Cachorro</t>
-  </si>
-  <si>
-    <t>Boi</t>
-  </si>
-  <si>
-    <t>Transeunte desconhecido</t>
-  </si>
-  <si>
-    <t>Garota Nefrite</t>
-  </si>
-  <si>
-    <t>Mulher Nefrite</t>
-  </si>
-  <si>
-    <t>Ali adulto</t>
-  </si>
-  <si>
-    <t>Ifrit Feminino</t>
-  </si>
-  <si>
-    <t>Jarah adulto</t>
-  </si>
-  <si>
-    <t>Aldeão irritado</t>
-  </si>
-  <si>
-    <t>Companheiro</t>
-  </si>
-  <si>
-    <t>Chama Obsidiana</t>
-  </si>
-  <si>
-    <t>Ifrit gordinho</t>
+    <t>Ifrit femenina</t>
+  </si>
+  <si>
+    <t>Adulto Jarah</t>
+  </si>
+  <si>
+    <t>Aldeano enfadado</t>
+  </si>
+  <si>
+    <t>Compañero</t>
+  </si>
+  <si>
+    <t>Llama de Obsidiana</t>
+  </si>
+  <si>
+    <t>Ifrit regordete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -368,16 +368,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="4">
@@ -398,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -406,29 +396,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -442,25 +414,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="1" xr:uid="{DA865728-51A7-4886-9BF2-85A12977CF8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,10 +731,10 @@
   <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G47"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="1" t="s">
@@ -803,697 +759,789 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="27">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="27">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="27">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="27">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.5">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="27">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="27">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="27">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="27">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="40.5">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="40.5">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="27">
-      <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="27">
-      <c r="A20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="27">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="27">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="27">
-      <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="27">
-      <c r="A24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="27">
-      <c r="A25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="27">
-      <c r="A26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="27">
-      <c r="A27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="27">
-      <c r="A28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="27">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="27">
-      <c r="A30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="27">
-      <c r="A32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="27">
-      <c r="A33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="27">
-      <c r="A34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="27">
-      <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="27">
-      <c r="A36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="27">
-      <c r="A37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="27">
-      <c r="A38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="27">
-      <c r="A39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="27">
-      <c r="A40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="27">
-      <c r="A41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="27">
-      <c r="A42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="27">
-      <c r="A44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="27">
-      <c r="A45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="27">
-      <c r="A47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F13D6-01C4-448B-9E20-21F991E1E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA4BCD-7601-4CE1-B7E7-2A666BF96AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2475" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>埃尔修斯</t>
   </si>
   <si>
-    <t>Aloysius</t>
-  </si>
-  <si>
     <t>被打败的火魔人甲</t>
   </si>
   <si>
@@ -234,42 +231,6 @@
     <t>肥胖的火魔人</t>
   </si>
   <si>
-    <t>Bruja del desierto</t>
-  </si>
-  <si>
-    <t>Espejo</t>
-  </si>
-  <si>
-    <t>Ifrit alto</t>
-  </si>
-  <si>
-    <t>Ifrit corto</t>
-  </si>
-  <si>
-    <t>Hombre misterioso</t>
-  </si>
-  <si>
-    <t>Ifrit tímido</t>
-  </si>
-  <si>
-    <t>Jardinería Ifrit</t>
-  </si>
-  <si>
-    <t>Observando a Ifrit</t>
-  </si>
-  <si>
-    <t>Niño desconocido</t>
-  </si>
-  <si>
-    <t>Bestia misteriosa</t>
-  </si>
-  <si>
-    <t>Viajero de ojos de halcón</t>
-  </si>
-  <si>
-    <t>Nasir el Mago Blanco</t>
-  </si>
-  <si>
     <t>Soldado Akhal</t>
   </si>
   <si>
@@ -279,73 +240,112 @@
     <t>Pintor (Recursos)</t>
   </si>
   <si>
-    <t>Pintor (Cazador de Monstruos)</t>
-  </si>
-  <si>
-    <t>Extraño transeúnte</t>
-  </si>
-  <si>
-    <t>Mujer hermosa</t>
-  </si>
-  <si>
-    <t>Hombre fuerte calvo</t>
-  </si>
-  <si>
-    <t>Hombre fuerte con cabello corto</t>
-  </si>
-  <si>
-    <t>Hombre Fuerte de Cabello Largo</t>
-  </si>
-  <si>
-    <t>Maestro de espadas</t>
-  </si>
-  <si>
-    <t>Cerdo</t>
-  </si>
-  <si>
-    <t>Perro</t>
-  </si>
-  <si>
-    <t>Buey</t>
-  </si>
-  <si>
-    <t>Transeúnte desconocido</t>
-  </si>
-  <si>
-    <t>Chica Nefrita</t>
-  </si>
-  <si>
-    <t>Mujer nefrita</t>
-  </si>
-  <si>
     <t>Soldado</t>
   </si>
   <si>
-    <t>Ifrit feroz</t>
-  </si>
-  <si>
-    <t>Adulto Ali</t>
-  </si>
-  <si>
-    <t>Hewez adulto</t>
-  </si>
-  <si>
-    <t>Ifrit femenina</t>
-  </si>
-  <si>
-    <t>Adulto Jarah</t>
-  </si>
-  <si>
-    <t>Aldeano enfadado</t>
-  </si>
-  <si>
-    <t>Compañero</t>
-  </si>
-  <si>
-    <t>Llama de Obsidiana</t>
-  </si>
-  <si>
-    <t>Ifrit regordete</t>
+    <t>bruxa do deserto</t>
+  </si>
+  <si>
+    <t>Espelho</t>
+  </si>
+  <si>
+    <t>alto ifrit</t>
+  </si>
+  <si>
+    <t>ifrit curto</t>
+  </si>
+  <si>
+    <t>Homem misterioso</t>
+  </si>
+  <si>
+    <t>Aloísio</t>
+  </si>
+  <si>
+    <t>tímido ifrit</t>
+  </si>
+  <si>
+    <t>Jardinagem Ifrit</t>
+  </si>
+  <si>
+    <t>Assistindo Ifrit</t>
+  </si>
+  <si>
+    <t>criança desconhecida</t>
+  </si>
+  <si>
+    <t>besta misteriosa</t>
+  </si>
+  <si>
+    <t>viajante com olhos de falcão</t>
+  </si>
+  <si>
+    <t>Nasir, o Mago Branco</t>
+  </si>
+  <si>
+    <t>Pintor (Caçador de Monstros)</t>
+  </si>
+  <si>
+    <t>Estranho transeunte</t>
+  </si>
+  <si>
+    <t>Mulher bonita</t>
+  </si>
+  <si>
+    <t>Homem forte e careca</t>
+  </si>
+  <si>
+    <t>Homem forte com cabelo curto</t>
+  </si>
+  <si>
+    <t>Homem forte de cabelos compridos</t>
+  </si>
+  <si>
+    <t>Mestre de espada</t>
+  </si>
+  <si>
+    <t>Porco</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Boi</t>
+  </si>
+  <si>
+    <t>transeunte desconhecido</t>
+  </si>
+  <si>
+    <t>Garota Nefrita</t>
+  </si>
+  <si>
+    <t>Mulher Nefrita</t>
+  </si>
+  <si>
+    <t>feroz ifrit</t>
+  </si>
+  <si>
+    <t>Ali adulto</t>
+  </si>
+  <si>
+    <t>hewez adulto</t>
+  </si>
+  <si>
+    <t>ifrit feminino</t>
+  </si>
+  <si>
+    <t>Jarah adulto</t>
+  </si>
+  <si>
+    <t>aldeão irritado</t>
+  </si>
+  <si>
+    <t>Companheiro</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>ifrit gordo</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,10 +731,13 @@
   <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C2" sqref="C2:C280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="1" t="s">
@@ -767,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
@@ -784,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -818,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -835,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -886,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -903,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -914,13 +917,13 @@
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
@@ -931,13 +934,13 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -948,13 +951,13 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
@@ -965,13 +968,13 @@
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -982,13 +985,13 @@
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>7</v>
@@ -999,13 +1002,13 @@
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -1016,13 +1019,13 @@
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -1033,13 +1036,13 @@
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
@@ -1050,13 +1053,13 @@
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
@@ -1067,13 +1070,13 @@
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -1084,13 +1087,13 @@
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>7</v>
@@ -1101,13 +1104,13 @@
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
@@ -1118,13 +1121,13 @@
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>7</v>
@@ -1135,13 +1138,13 @@
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
@@ -1152,13 +1155,13 @@
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>7</v>
@@ -1169,13 +1172,13 @@
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>7</v>
@@ -1186,13 +1189,13 @@
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -1203,13 +1206,13 @@
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -1220,13 +1223,13 @@
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
@@ -1237,13 +1240,13 @@
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>7</v>
@@ -1254,13 +1257,13 @@
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>7</v>
@@ -1271,13 +1274,13 @@
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
@@ -1288,13 +1291,13 @@
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -1305,13 +1308,13 @@
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -1322,13 +1325,13 @@
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -1339,10 +1342,10 @@
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
         <v>96</v>
@@ -1356,10 +1359,10 @@
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
         <v>96</v>
@@ -1373,10 +1376,10 @@
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>97</v>
@@ -1390,10 +1393,10 @@
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>98</v>
@@ -1407,10 +1410,10 @@
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>99</v>
@@ -1424,10 +1427,10 @@
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
@@ -1441,10 +1444,10 @@
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>101</v>
@@ -1458,13 +1461,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>7</v>
@@ -1475,10 +1478,10 @@
     </row>
     <row r="44" spans="1:6" ht="30">
       <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>102</v>
@@ -1492,10 +1495,10 @@
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>102</v>
@@ -1509,10 +1512,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
@@ -1526,10 +1529,10 @@
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>104</v>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_MainStory_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C044AAF-10A0-4939-AD83-3F98A39A3168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AEF68-C504-4E0F-B238-98AD183F5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="420" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -226,10 +226,10 @@
     <t>Bruxa do Deserto</t>
   </si>
   <si>
-    <t>Ifrit Alto</t>
-  </si>
-  <si>
-    <t>Ifrit Baixo</t>
+    <t>Grande Ifrit</t>
+  </si>
+  <si>
+    <t>Pequeno Ifrit</t>
   </si>
   <si>
     <t>Homem Misterioso</t>
@@ -250,13 +250,13 @@
     <t>Homem-Besta Misterioso</t>
   </si>
   <si>
-    <t>Um Viajante com Boa Visão</t>
+    <t>Viajante de Olhos de Falcão</t>
   </si>
   <si>
     <t>Nasir, o Mago Branco</t>
   </si>
   <si>
-    <t>Soldado Akhal</t>
+    <t>Soldado dos Akhal</t>
   </si>
   <si>
     <t>Pintor (Utar)</t>
@@ -268,7 +268,7 @@
     <t>Pintor (Caçador de Monstros)</t>
   </si>
   <si>
-    <t>Transeunte Misterioso</t>
+    <t>Estranho de Passagem</t>
   </si>
   <si>
     <t>Mulher Bonita</t>
@@ -277,13 +277,13 @@
     <t>Homem Forte Careca</t>
   </si>
   <si>
-    <t>Homem Forte de Cabelos Curtos</t>
-  </si>
-  <si>
-    <t>Homem Forte de Cabelos Longos</t>
-  </si>
-  <si>
-    <t>Mestre Espadachim</t>
+    <t>Homem Forte de Cabelo Curto</t>
+  </si>
+  <si>
+    <t>Homem Forte de Cabelo Longo</t>
+  </si>
+  <si>
+    <t>Mestre da Espada</t>
   </si>
   <si>
     <t>Porco</t>
@@ -307,7 +307,10 @@
     <t>Soldado</t>
   </si>
   <si>
-    <t>Ifrit Feroz</t>
+    <t>Ifrit Furioso</t>
+  </si>
+  <si>
+    <t>Ifrit Selvagem</t>
   </si>
   <si>
     <t>Ali Adulto</t>
@@ -316,13 +319,13 @@
     <t>Hewez Adulto</t>
   </si>
   <si>
-    <t>Ifrit Fêmea</t>
-  </si>
-  <si>
-    <t>Jarah Adulto</t>
-  </si>
-  <si>
-    <t>Aldeão Zangado</t>
+    <t>Ifrit Feminino</t>
+  </si>
+  <si>
+    <t>Jarah Adulta</t>
+  </si>
+  <si>
+    <t>Aldeão Irritado</t>
   </si>
   <si>
     <t>Companheiro</t>
@@ -334,7 +337,7 @@
     <t>Chama Obsidiana</t>
   </si>
   <si>
-    <t>Ifrit Gordinho</t>
+    <t>Ifrit Rechonchudo</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -944,15 +950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1441,7 +1445,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="4"/>
       <c r="F37" s="2"/>
@@ -1454,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="4"/>
       <c r="F38" s="2"/>
@@ -1467,7 +1471,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="4"/>
       <c r="F39" s="2"/>
@@ -1480,7 +1484,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4"/>
       <c r="F40" s="2"/>
@@ -1493,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4"/>
       <c r="F41" s="2"/>
@@ -1506,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="2"/>
@@ -1532,7 +1536,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="2"/>
@@ -1545,7 +1549,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="2"/>
@@ -1558,7 +1562,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="2"/>
@@ -1570,8 +1574,8 @@
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>104</v>
+      <c r="C47" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="2"/>
